--- a/data/pca/factorExposure/factorExposure_2013-04-24.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-04-24.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-1.118898611171672e-05</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.001888824209600818</v>
+      </c>
+      <c r="C2">
+        <v>0.0326775717308103</v>
+      </c>
+      <c r="D2">
+        <v>0.007018102010903256</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.001793765005705818</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.006019230952993638</v>
+      </c>
+      <c r="C4">
+        <v>0.08525181695160727</v>
+      </c>
+      <c r="D4">
+        <v>0.07804908963356523</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.001006236023655786</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01323190801466063</v>
+      </c>
+      <c r="C6">
+        <v>0.108567375172748</v>
+      </c>
+      <c r="D6">
+        <v>0.03367370927105804</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.002031552078991261</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.004562680394296638</v>
+      </c>
+      <c r="C7">
+        <v>0.0539148811824825</v>
+      </c>
+      <c r="D7">
+        <v>0.03558805921593035</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-0.0006631565726616348</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.00555501034058215</v>
+      </c>
+      <c r="C8">
+        <v>0.03739123930301162</v>
+      </c>
+      <c r="D8">
+        <v>0.03696053563286555</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.00376976194735478</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.004016996531702109</v>
+      </c>
+      <c r="C9">
+        <v>0.06996126433221328</v>
+      </c>
+      <c r="D9">
+        <v>0.07170784030020885</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.004580305538155553</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.00565291535190243</v>
+      </c>
+      <c r="C10">
+        <v>0.07225623488223092</v>
+      </c>
+      <c r="D10">
+        <v>-0.2141349364469783</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.003425395946487777</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005223513747222603</v>
+      </c>
+      <c r="C11">
+        <v>0.0782896643154926</v>
+      </c>
+      <c r="D11">
+        <v>0.06496778361678686</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-7.068546210890102e-06</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.003934769893064756</v>
+      </c>
+      <c r="C12">
+        <v>0.06363862980993212</v>
+      </c>
+      <c r="D12">
+        <v>0.04755135245890959</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.003089431718071868</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.008309789505800134</v>
+      </c>
+      <c r="C13">
+        <v>0.06498814186944901</v>
+      </c>
+      <c r="D13">
+        <v>0.06719997903227076</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.001541807741351064</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001558588277072374</v>
+      </c>
+      <c r="C14">
+        <v>0.04617308605307485</v>
+      </c>
+      <c r="D14">
+        <v>0.01330791740622971</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.0008458849795522513</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.005901799298385041</v>
+      </c>
+      <c r="C15">
+        <v>0.04119829063098317</v>
+      </c>
+      <c r="D15">
+        <v>0.03230217476345705</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.001818188749504342</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.004847726418684904</v>
+      </c>
+      <c r="C16">
+        <v>0.06480909474246249</v>
+      </c>
+      <c r="D16">
+        <v>0.05007394654893196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>8.693587091286977e-07</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.00890466972698147</v>
+      </c>
+      <c r="C20">
+        <v>0.06513332765076331</v>
+      </c>
+      <c r="D20">
+        <v>0.05522370940775151</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005724351708856447</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.009820265245327435</v>
+      </c>
+      <c r="C21">
+        <v>0.02200525328538726</v>
+      </c>
+      <c r="D21">
+        <v>0.03614076237957146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01698904691239523</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.006988785412869829</v>
+      </c>
+      <c r="C22">
+        <v>0.0938168716323783</v>
+      </c>
+      <c r="D22">
+        <v>0.1021714515707841</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01731331614129927</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006802352910365191</v>
+      </c>
+      <c r="C23">
+        <v>0.09467432704124566</v>
+      </c>
+      <c r="D23">
+        <v>0.1024902923860332</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.002211986501209937</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.004878722276830436</v>
+      </c>
+      <c r="C24">
+        <v>0.07322941123514752</v>
+      </c>
+      <c r="D24">
+        <v>0.06153244670063282</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.004187237817422574</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.002662202741783539</v>
+      </c>
+      <c r="C25">
+        <v>0.07712497014496106</v>
+      </c>
+      <c r="D25">
+        <v>0.06630553912778026</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.006314799804984951</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003598939418635848</v>
+      </c>
+      <c r="C26">
+        <v>0.04158370345154409</v>
+      </c>
+      <c r="D26">
+        <v>0.02829288659456166</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.004261341269193249</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.0005333019784897257</v>
+      </c>
+      <c r="C28">
+        <v>0.1197542477893034</v>
+      </c>
+      <c r="D28">
+        <v>-0.3089706948154639</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.001454072639533297</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.003264135175660683</v>
+      </c>
+      <c r="C29">
+        <v>0.04894104985465269</v>
+      </c>
+      <c r="D29">
+        <v>0.0130539711105144</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.004178272505138901</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.008751436902281558</v>
+      </c>
+      <c r="C30">
+        <v>0.1389860333726602</v>
+      </c>
+      <c r="D30">
+        <v>0.1067520564941882</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>-0.0001265824691086752</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006092893865465831</v>
+      </c>
+      <c r="C31">
+        <v>0.04537441421298696</v>
+      </c>
+      <c r="D31">
+        <v>0.03162078732960841</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.001000568524265986</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.003919207133495944</v>
+      </c>
+      <c r="C32">
+        <v>0.03964574141755568</v>
+      </c>
+      <c r="D32">
+        <v>0.01840183487053293</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.00330311743821072</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.007818320296784611</v>
+      </c>
+      <c r="C33">
+        <v>0.08422756059328979</v>
+      </c>
+      <c r="D33">
+        <v>0.07532445882434238</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.004802394791943969</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.003754771117416896</v>
+      </c>
+      <c r="C34">
+        <v>0.05776696388319297</v>
+      </c>
+      <c r="D34">
+        <v>0.04728861652491175</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.002790254597613241</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.004710543625894829</v>
+      </c>
+      <c r="C35">
+        <v>0.03865667034064783</v>
+      </c>
+      <c r="D35">
+        <v>0.01416310468058938</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004046783306718147</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001383034479841268</v>
+      </c>
+      <c r="C36">
+        <v>0.02384322785803466</v>
+      </c>
+      <c r="D36">
+        <v>0.02361939788399673</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.00193607976870129</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009394553524593511</v>
+      </c>
+      <c r="C38">
+        <v>0.03414012478750682</v>
+      </c>
+      <c r="D38">
+        <v>0.0202561595034399</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01339904676528587</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.001007379527343141</v>
+      </c>
+      <c r="C39">
+        <v>0.1151701830982166</v>
+      </c>
+      <c r="D39">
+        <v>0.0848096490994374</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.009910402857370042</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.001951717240922777</v>
+      </c>
+      <c r="C40">
+        <v>0.08554486185405712</v>
+      </c>
+      <c r="D40">
+        <v>0.02054781721252949</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.0003882875039063166</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007328897161262954</v>
+      </c>
+      <c r="C41">
+        <v>0.03915359172933178</v>
+      </c>
+      <c r="D41">
+        <v>0.03471606234095429</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.003173058728310886</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.003516124518724517</v>
+      </c>
+      <c r="C43">
+        <v>0.05092262287128114</v>
+      </c>
+      <c r="D43">
+        <v>0.02542806562341788</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.003143449391657378</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003329632118767481</v>
+      </c>
+      <c r="C44">
+        <v>0.1102238956392122</v>
+      </c>
+      <c r="D44">
+        <v>0.08396763635586357</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.001744280599224644</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002300415923722885</v>
+      </c>
+      <c r="C46">
+        <v>0.03412892389256917</v>
+      </c>
+      <c r="D46">
+        <v>0.03120124347406282</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.0009761834744224569</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002628585423517177</v>
+      </c>
+      <c r="C47">
+        <v>0.03822768867663219</v>
+      </c>
+      <c r="D47">
+        <v>0.02366641839698625</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.003218659184291684</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006304276746746879</v>
+      </c>
+      <c r="C48">
+        <v>0.0286940755407022</v>
+      </c>
+      <c r="D48">
+        <v>0.03330265233956563</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.01441472335849904</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01431697270553221</v>
+      </c>
+      <c r="C49">
+        <v>0.1741505876286069</v>
+      </c>
+      <c r="D49">
+        <v>0.02551474290044141</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.001389278790249899</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003500861482473415</v>
+      </c>
+      <c r="C50">
+        <v>0.04276725567093833</v>
+      </c>
+      <c r="D50">
+        <v>0.03575952326764388</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.001284365907726369</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004250749851377973</v>
+      </c>
+      <c r="C51">
+        <v>0.02104101826491547</v>
+      </c>
+      <c r="D51">
+        <v>0.03244048673748368</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.0002723835385555715</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02002646769011216</v>
+      </c>
+      <c r="C53">
+        <v>0.1653380052177768</v>
+      </c>
+      <c r="D53">
+        <v>0.0472092485150361</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.0007925158459147452</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008614493910472389</v>
+      </c>
+      <c r="C54">
+        <v>0.05535917304412559</v>
+      </c>
+      <c r="D54">
+        <v>0.04240729483303084</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.004044641892604109</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009092734604790674</v>
+      </c>
+      <c r="C55">
+        <v>0.1064928392987147</v>
+      </c>
+      <c r="D55">
+        <v>0.05180320860999242</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.002969798505163696</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.01954023636727151</v>
+      </c>
+      <c r="C56">
+        <v>0.1735107297161688</v>
+      </c>
+      <c r="D56">
+        <v>0.04423296456948778</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.00787557054975634</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01919364580327206</v>
+      </c>
+      <c r="C58">
+        <v>0.1045040405080737</v>
+      </c>
+      <c r="D58">
+        <v>0.06989596044687714</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.006730474096719611</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.009527006432494023</v>
+      </c>
+      <c r="C59">
+        <v>0.1683428162682665</v>
+      </c>
+      <c r="D59">
+        <v>-0.287079375014107</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.004520147688298438</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02333472880404694</v>
+      </c>
+      <c r="C60">
+        <v>0.2226772956748298</v>
+      </c>
+      <c r="D60">
+        <v>0.02764818044699209</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01503667786952414</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.002101355620006892</v>
+      </c>
+      <c r="C61">
+        <v>0.09420220377591226</v>
+      </c>
+      <c r="D61">
+        <v>0.0621936857596111</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1707202886170562</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1436606190916573</v>
+      </c>
+      <c r="C62">
+        <v>0.08059656801183662</v>
+      </c>
+      <c r="D62">
+        <v>0.05480096931373997</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.001547096846670503</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006345099407628708</v>
+      </c>
+      <c r="C63">
+        <v>0.05952150333966959</v>
+      </c>
+      <c r="D63">
+        <v>0.0249798017683464</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.0058991379896274</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01474946989233542</v>
+      </c>
+      <c r="C64">
+        <v>0.1030017656629069</v>
+      </c>
+      <c r="D64">
+        <v>0.06329231973519162</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.001355364752091133</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.0170711340858125</v>
+      </c>
+      <c r="C65">
+        <v>0.1161754771285653</v>
+      </c>
+      <c r="D65">
+        <v>0.0229070241112955</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.008576256097420245</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01228559468164439</v>
+      </c>
+      <c r="C66">
+        <v>0.1557878750463916</v>
+      </c>
+      <c r="D66">
+        <v>0.1222137672427617</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.00335271462384427</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01546923016374594</v>
+      </c>
+      <c r="C67">
+        <v>0.06447373987527158</v>
+      </c>
+      <c r="D67">
+        <v>0.030716781695191</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.006512224880737151</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.001045362621823721</v>
+      </c>
+      <c r="C68">
+        <v>0.1023076513195461</v>
+      </c>
+      <c r="D68">
+        <v>-0.2599284175757197</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.002962764575632831</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.005784145144298458</v>
+      </c>
+      <c r="C69">
+        <v>0.048489330233112</v>
+      </c>
+      <c r="D69">
+        <v>0.04289590494044201</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001767431459242517</v>
+      </c>
+      <c r="C70">
+        <v>0.001834202977016216</v>
+      </c>
+      <c r="D70">
+        <v>0.002540014885977452</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.001440926816986762</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.006101667716004735</v>
+      </c>
+      <c r="C71">
+        <v>0.106594272933338</v>
+      </c>
+      <c r="D71">
+        <v>-0.2855958795605587</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.00572823085310217</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.0153698671696208</v>
+      </c>
+      <c r="C72">
+        <v>0.1502070860655888</v>
+      </c>
+      <c r="D72">
+        <v>0.01881338942357155</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.01190563396561648</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.02917368918609835</v>
+      </c>
+      <c r="C73">
+        <v>0.2802493415724705</v>
+      </c>
+      <c r="D73">
+        <v>0.04671466998432636</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.004896715084072386</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.001162295858712425</v>
+      </c>
+      <c r="C74">
+        <v>0.1041460961519501</v>
+      </c>
+      <c r="D74">
+        <v>0.04357196213134375</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.004127486580752816</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01060916954105809</v>
+      </c>
+      <c r="C75">
+        <v>0.1319424591461943</v>
+      </c>
+      <c r="D75">
+        <v>0.02579800296418241</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.009544035221492306</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.0210442600268209</v>
+      </c>
+      <c r="C76">
+        <v>0.148480791059616</v>
+      </c>
+      <c r="D76">
+        <v>0.06945398756892535</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>-0.0001404647546123877</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02396958231138494</v>
+      </c>
+      <c r="C77">
+        <v>0.1328144452575284</v>
+      </c>
+      <c r="D77">
+        <v>0.06349737040472035</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.001479332183705158</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01422166991869753</v>
+      </c>
+      <c r="C78">
+        <v>0.09382401339923128</v>
+      </c>
+      <c r="D78">
+        <v>0.06917762378522646</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02412917707606542</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03673524622325558</v>
+      </c>
+      <c r="C79">
+        <v>0.157236356624135</v>
+      </c>
+      <c r="D79">
+        <v>0.03138566425494005</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.004844054379045996</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01034585355290758</v>
+      </c>
+      <c r="C80">
+        <v>0.04082128345548099</v>
+      </c>
+      <c r="D80">
+        <v>0.03304093080213846</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>-0.0004308684458049536</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01444230836375862</v>
+      </c>
+      <c r="C81">
+        <v>0.1237292458190436</v>
+      </c>
+      <c r="D81">
+        <v>0.0565971030908239</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.005557547483336736</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.01925504506327415</v>
+      </c>
+      <c r="C82">
+        <v>0.1425803977723255</v>
+      </c>
+      <c r="D82">
+        <v>0.04580437587388958</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.008607216981298873</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.009800096060503307</v>
+      </c>
+      <c r="C83">
+        <v>0.05469601744481655</v>
+      </c>
+      <c r="D83">
+        <v>0.05012259785882254</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01263342369643372</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01151201831207872</v>
+      </c>
+      <c r="C84">
+        <v>0.03392294352938464</v>
+      </c>
+      <c r="D84">
+        <v>-0.004690131855134679</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01560154466672871</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02774878339626068</v>
+      </c>
+      <c r="C85">
+        <v>0.1284103800627919</v>
+      </c>
+      <c r="D85">
+        <v>0.04902417642999467</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.001503496817688228</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.005341508741908718</v>
+      </c>
+      <c r="C86">
+        <v>0.04794449490046936</v>
+      </c>
+      <c r="D86">
+        <v>0.02248108858628855</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.005273025197182266</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.0100115805147751</v>
+      </c>
+      <c r="C87">
+        <v>0.1294478533651776</v>
+      </c>
+      <c r="D87">
+        <v>0.07582976952611635</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01306084885739098</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.002918613084284994</v>
+      </c>
+      <c r="C88">
+        <v>0.06786695517482824</v>
+      </c>
+      <c r="D88">
+        <v>0.01425445415577257</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01542317673854149</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.0009437771761001662</v>
+      </c>
+      <c r="C89">
+        <v>0.1580112361409519</v>
+      </c>
+      <c r="D89">
+        <v>-0.3399224161258085</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.002895446947761845</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.007513155855720387</v>
+      </c>
+      <c r="C90">
+        <v>0.1381542575313209</v>
+      </c>
+      <c r="D90">
+        <v>-0.3224894116726943</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.0006477186242134742</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01015959242439245</v>
+      </c>
+      <c r="C91">
+        <v>0.105490606845768</v>
+      </c>
+      <c r="D91">
+        <v>0.02042372557948626</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.008575082806136865</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.0006624038785672021</v>
+      </c>
+      <c r="C92">
+        <v>0.1444468524481647</v>
+      </c>
+      <c r="D92">
+        <v>-0.3305141693950798</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.0008605503264432202</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.005240080484794792</v>
+      </c>
+      <c r="C93">
+        <v>0.1182902254526655</v>
+      </c>
+      <c r="D93">
+        <v>-0.3135157176161222</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.003143950786870565</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02211591924324837</v>
+      </c>
+      <c r="C94">
+        <v>0.1568545616114758</v>
+      </c>
+      <c r="D94">
+        <v>0.03367628075414535</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.005116987294722031</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01576757238841827</v>
+      </c>
+      <c r="C95">
+        <v>0.1246475963070923</v>
+      </c>
+      <c r="D95">
+        <v>0.06387443749204984</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>-0.001607603914522562</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03437236839881932</v>
+      </c>
+      <c r="C97">
+        <v>0.1815553450082954</v>
+      </c>
+      <c r="D97">
+        <v>0.0351046970174444</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.00423809491233305</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03624386541977829</v>
+      </c>
+      <c r="C98">
+        <v>0.2512070369485189</v>
+      </c>
+      <c r="D98">
+        <v>0.0481737629660414</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9833186229358046</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9827898376028421</v>
+      </c>
+      <c r="C99">
+        <v>-0.1100335866051945</v>
+      </c>
+      <c r="D99">
+        <v>-0.03047618734795688</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.001412709790355136</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.00330743760189035</v>
+      </c>
+      <c r="C101">
+        <v>0.048966553583327</v>
+      </c>
+      <c r="D101">
+        <v>0.01346478939504032</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
